--- a/TestFiles/poria/words/word_1.xlsx
+++ b/TestFiles/poria/words/word_1.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.8032533500000003</v>
+        <v>5.80325335</v>
       </c>
       <c r="B2">
-        <v>0.9191753499999997</v>
+        <v>5.91917535</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.17502925</v>
+        <v>6.17502925</v>
       </c>
       <c r="B3">
-        <v>1.276300749999999</v>
+        <v>6.276300749999999</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.559089949999999</v>
+        <v>6.559089949999999</v>
       </c>
       <c r="B4">
-        <v>1.675890749999999</v>
+        <v>6.675890749999999</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.92304865</v>
+        <v>6.92304865</v>
       </c>
       <c r="B5">
-        <v>2.01922665</v>
+        <v>7.01922665</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>

--- a/TestFiles/poria/words/word_1.xlsx
+++ b/TestFiles/poria/words/word_1.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5.80325335</v>
+        <v>4.80325335</v>
       </c>
       <c r="B2">
-        <v>5.91917535</v>
+        <v>4.91917535</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>6.17502925</v>
+        <v>5.17502925</v>
       </c>
       <c r="B3">
-        <v>6.276300749999999</v>
+        <v>5.276300749999999</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>6.559089949999999</v>
+        <v>5.559089949999999</v>
       </c>
       <c r="B4">
-        <v>6.675890749999999</v>
+        <v>5.675890749999999</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>6.92304865</v>
+        <v>5.92304865</v>
       </c>
       <c r="B5">
-        <v>7.01922665</v>
+        <v>6.01922665</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
